--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2728313333333333</v>
+        <v>0.08258366666666667</v>
       </c>
       <c r="H2">
-        <v>0.8184939999999999</v>
+        <v>0.247751</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.707449</v>
+        <v>6.755097</v>
       </c>
       <c r="N2">
-        <v>17.122347</v>
+        <v>20.265291</v>
       </c>
       <c r="O2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
       <c r="P2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
       <c r="Q2">
-        <v>1.557170920602</v>
+        <v>0.557860678949</v>
       </c>
       <c r="R2">
-        <v>14.014538285418</v>
+        <v>5.020746110541</v>
       </c>
       <c r="S2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
       <c r="T2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2728313333333333</v>
+        <v>0.08258366666666667</v>
       </c>
       <c r="H3">
-        <v>0.8184939999999999</v>
+        <v>0.247751</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>13.91032</v>
       </c>
       <c r="O3">
-        <v>0.2761985525265242</v>
+        <v>0.179964029239562</v>
       </c>
       <c r="P3">
-        <v>0.2761985525265243</v>
+        <v>0.179964029239562</v>
       </c>
       <c r="Q3">
-        <v>1.265057050897778</v>
+        <v>0.3829217433688889</v>
       </c>
       <c r="R3">
-        <v>11.38551345808</v>
+        <v>3.446295690319999</v>
       </c>
       <c r="S3">
-        <v>0.2761985525265242</v>
+        <v>0.179964029239562</v>
       </c>
       <c r="T3">
-        <v>0.2761985525265243</v>
+        <v>0.179964029239562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2728313333333333</v>
+        <v>0.08258366666666667</v>
       </c>
       <c r="H4">
-        <v>0.8184939999999999</v>
+        <v>0.247751</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.100319</v>
+        <v>12.28762933333333</v>
       </c>
       <c r="N4">
-        <v>12.300957</v>
+        <v>36.862888</v>
       </c>
       <c r="O4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
       <c r="P4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
       <c r="Q4">
-        <v>1.118695499862</v>
+        <v>1.014757484987556</v>
       </c>
       <c r="R4">
-        <v>10.068259498758</v>
+        <v>9.132817364888</v>
       </c>
       <c r="S4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
       <c r="T4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2728313333333333</v>
+        <v>0.08258366666666667</v>
       </c>
       <c r="H5">
-        <v>0.8184939999999999</v>
+        <v>0.247751</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.343285</v>
+        <v>2.085501</v>
       </c>
       <c r="N5">
-        <v>7.029855</v>
+        <v>6.256503</v>
       </c>
       <c r="O5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644024</v>
       </c>
       <c r="P5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644023</v>
       </c>
       <c r="Q5">
-        <v>0.6393215709299999</v>
+        <v>0.172228319417</v>
       </c>
       <c r="R5">
-        <v>5.753894138369999</v>
+        <v>1.550054874753</v>
       </c>
       <c r="S5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644024</v>
       </c>
       <c r="T5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644023</v>
       </c>
     </row>
   </sheetData>
